--- a/valid_dq.xlsx
+++ b/valid_dq.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KulkarniOnkar(DEVELO\Desktop\work\dq_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KulkarniOnkar(DEVELO\PycharmProjects\dq_yaml_generation_util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D234A194-1D40-4744-BFFE-DF5A53478F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C708CC3-0CAF-486B-A041-8ABAE6D48F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{F3FC5FDA-5898-4D08-85B1-8CD6A2D4036E}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnLevel" sheetId="1" r:id="rId1"/>
     <sheet name="TableLevel" sheetId="2" r:id="rId2"/>
+    <sheet name="Information" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="81">
   <si>
     <t>GCP Project ID</t>
   </si>
@@ -179,9 +180,6 @@
     <t>end_station_priority_id</t>
   </si>
   <si>
-    <t>0 &lt; 'end_station_priority_id' AND 'end_station_priority_id' &lt; 100</t>
-  </si>
-  <si>
     <t>SQL_TABLE</t>
   </si>
   <si>
@@ -191,9 +189,6 @@
     <t>SQL_ASSERT</t>
   </si>
   <si>
-    <t>SELECT * FROM $(data()} WHERE bike_id &gt; 100</t>
-  </si>
-  <si>
     <t>best_table</t>
   </si>
   <si>
@@ -201,6 +196,108 @@
   </si>
   <si>
     <t>* * * 1 2 3</t>
+  </si>
+  <si>
+    <t>TableLevel Sheet column information</t>
+  </si>
+  <si>
+    <t>Enter your actual GCP project ID</t>
+  </si>
+  <si>
+    <t>Enter your Bigquery Dataset ID</t>
+  </si>
+  <si>
+    <t>Enter name of the table for which you want to create DQ rules</t>
+  </si>
+  <si>
+    <t>Put partition column fiter condition (if table is partitioned) or row filter condition. Entire tables data
+will be first filtered based on this condition and then on derived subset DQ rules will be applied
+&lt;partition_column&gt; = 'YYYY-MM-DD HH:MI:SS"
+&lt;column_name&gt; &gt;= 0</t>
+  </si>
+  <si>
+    <t>If you want to apply rules on sampled data then use this filed.
+Value should be between 0-100</t>
+  </si>
+  <si>
+    <t>ColumnLevel Sheet Column information</t>
+  </si>
+  <si>
+    <t>Enter name of column on which DQ rule needs to be applied</t>
+  </si>
+  <si>
+    <t>Enter your own rule name. It will be shown on GCP console for easy understanding</t>
+  </si>
+  <si>
+    <t>Enter Description. It will be shown on GCP console</t>
+  </si>
+  <si>
+    <t>True - If you want to ignore null values while applying DQ rule
+False - If null values also needs to be considered</t>
+  </si>
+  <si>
+    <t>It should be 0-1. This is bad data tollerance i.e upto what % bad data is allowed even if DQ rule
+breaks</t>
+  </si>
+  <si>
+    <t>Enter only if DQ rule is of Range. This is the Min value</t>
+  </si>
+  <si>
+    <t>Enter only if DQ rule is of Range.
+True - if min value should be always be greater than given min value
+False - min value shoule be always be greater than or equal to given min value</t>
+  </si>
+  <si>
+    <t>Enter only if DQ rule is of Range. This is the Max value</t>
+  </si>
+  <si>
+    <t>Enter only if DQ rule is of Range.
+True - if max value should be always be less than given max value
+False - max value shoule be always be less than or equal to given max value</t>
+  </si>
+  <si>
+    <t>Enter only if DQ rule is of Set type. Mention all list values in comma separated format</t>
+  </si>
+  <si>
+    <t>Enter only if DQ rule is of RegEx type. Enter the regular expression directly</t>
+  </si>
+  <si>
+    <t>Enter only if DQ rule is out rowLevel, TableLevel custom SQL type. Put SQL code here</t>
+  </si>
+  <si>
+    <t>One out of following values are allowed.
+NOT_NULL  --&gt; For applying not null check
+RANGE         --&gt; For making sure values are within min and max range
+REGEX      ---&gt; For making sure string value follows regular rexpression pattern
+SET --&gt; For making sure value in any one out of given list
+SQL_ASSERT  --&gt; for SQL row level condition satisfaction
+SQL_ROW  --&gt; For applying row level SQL evaluation
+SQL_TABLE  --&gt; For applying sum,min,max,avg kind of checks
+UNIQUE --&gt; For applying uniqueness</t>
+  </si>
+  <si>
+    <t>0 &lt; end_station_priority_id AND end_station_priority_id &lt; 100</t>
+  </si>
+  <si>
+    <t>SELECT * FROM ${data()} WHERE bike_id &gt; 100</t>
+  </si>
+  <si>
+    <t>DQ Export GCP Project ID</t>
+  </si>
+  <si>
+    <t>DQ Export Bigquery Dataset ID</t>
+  </si>
+  <si>
+    <t>DQ Export Bigquery Table Name</t>
+  </si>
+  <si>
+    <t>export_test_project_id</t>
+  </si>
+  <si>
+    <t>export_test_dataset_id</t>
+  </si>
+  <si>
+    <t>export_test_table</t>
   </si>
 </sst>
 </file>
@@ -224,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +334,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -246,15 +349,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A6563F-685D-4E3E-9753-E865481859AF}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -611,532 +736,674 @@
     <col min="12" max="12" width="14.921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.921875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.84375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="56.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="b">
+      <c r="H2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J3">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7">
         <v>1800</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3">
+      <c r="K3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
         <v>6660</v>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
+      <c r="M3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
+      <c r="H4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="s">
+      <c r="H6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="H7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
+        <v>1800</v>
+      </c>
+      <c r="K12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
+        <v>6660</v>
+      </c>
+      <c r="M12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P9" t="s">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12">
-        <v>1800</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>6660</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="P17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-      <c r="P18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" t="s">
-        <v>51</v>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1147,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ACDC09-86AF-4B6C-891B-7E88C1736B58}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1161,9 +1428,9 @@
     <col min="4" max="4" width="28.765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.23046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.07421875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.3828125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.61328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.921875" bestFit="1" customWidth="1"/>
@@ -1172,48 +1439,263 @@
     <col min="15" max="15" width="13.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
-        <v>54</v>
+      <c r="F2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C7054E-6FBE-4DC4-9271-A58000CBE038}">
+  <dimension ref="B2:C27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="34.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>